--- a/dtpu_configurations/only_integer8/100mhz/mxu_8x8/utilization.xlsx
+++ b/dtpu_configurations/only_integer8/100mhz/mxu_8x8/utilization.xlsx
@@ -154,16 +154,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>18.255638122558594</v>
+        <v>20.016918182373047</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>5.718390464782715</v>
+        <v>5.712643623352051</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>12.314848899841309</v>
+        <v>13.816729545593262</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>35.0</v>
+        <v>57.85714340209961</v>
       </c>
       <c r="F2" t="n" s="4">
         <v>25.454544067382812</v>
